--- a/data/xlsx_edit/physrost08.xlsx
+++ b/data/xlsx_edit/physrost08.xlsx
@@ -1819,10 +1819,10 @@
     <t xml:space="preserve">Eastern Oregon U</t>
   </si>
   <si>
+    <t xml:space="preserve">OR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lewis &amp; Clark Coll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OR</t>
   </si>
   <si>
     <t xml:space="preserve">Linfield Coll</t>
@@ -2795,8 +2795,8 @@
   </sheetPr>
   <dimension ref="A1:O765"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A529" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B549" activeCellId="0" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19425,7 +19425,7 @@
         <v>598</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>22</v>
@@ -19448,10 +19448,10 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B549" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>22</v>
@@ -19477,7 +19477,7 @@
         <v>601</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C550" s="1" t="s">
         <v>22</v>
@@ -19503,7 +19503,7 @@
         <v>602</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C551" s="1" t="s">
         <v>17</v>
@@ -19544,7 +19544,7 @@
         <v>603</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>17</v>
@@ -19585,7 +19585,7 @@
         <v>604</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>22</v>
@@ -19611,7 +19611,7 @@
         <v>605</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>17</v>
@@ -19652,7 +19652,7 @@
         <v>606</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>22</v>
@@ -19678,7 +19678,7 @@
         <v>607</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>22</v>
@@ -19704,7 +19704,7 @@
         <v>608</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>22</v>
@@ -19730,7 +19730,7 @@
         <v>609</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>22</v>
